--- a/Implementation/experiments/Experiments.xlsx
+++ b/Implementation/experiments/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9e69b2ecbee7309/Escritorio/Postgrado/RecSys_Project/GitHub_repo/Clone5/Recommender-System-2023/Implementation/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{AF695719-21C7-412E-850A-67901161AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF1CA30-3826-4AD9-A945-8FE7AE2C27A3}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{AF695719-21C7-412E-850A-67901161AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E56B921-4544-4F9F-95E0-A76CBF321E18}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{FC8B0CEF-D5C8-4F9B-934E-95D259E61C1C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="43">
   <si>
     <t>num_neg: 5</t>
   </si>
@@ -219,6 +219,81 @@
   <si>
     <t>Opinión Brenda: Quedarnos con Result 1</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_neg = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>batch_size = 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_neg = 6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>batch_size = 64</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +364,40 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,25 +501,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -422,38 +522,53 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -468,35 +583,8 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,6 +610,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,121 +915,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B91819-5CFC-4492-9167-531581F9A3B1}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="42"/>
+    <col min="2" max="2" width="10.90625" style="8"/>
     <col min="3" max="3" width="10.90625" style="1"/>
-    <col min="4" max="6" width="10.90625" style="2"/>
     <col min="7" max="7" width="10.90625" style="1"/>
     <col min="8" max="8" width="23.08984375" customWidth="1"/>
     <col min="9" max="11" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>43.557699999999997</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>3.56E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>1.29E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="5"/>
       <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
@@ -949,197 +1034,165 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>2.35E-2</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="23">
         <v>75.817300000000003</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="27">
         <f>MAX(D3,D8,D13,D18,D23,D28,D33)</f>
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="27">
         <f t="shared" ref="L6:M6" si="0">MAX(E3,E8,E13,E18,E23,E28,E33)</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="27">
         <f t="shared" si="0"/>
         <v>49.663499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="A7" s="37"/>
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K9" si="1">MAX(D4,D9,D14,D19,D24,D29,D34)</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L9" si="2">MAX(E4,E9,E14,E19,E24,E29,E34)</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="1">
         <f t="shared" ref="M7:M9" si="3">MAX(F4,F9,F14,F19,F24,F29,F34)</f>
         <v>100</v>
       </c>
-      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="31" t="s">
+      <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
         <v>3.56E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>1.29E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="1">
         <f t="shared" si="3"/>
         <v>0.48080000000000001</v>
       </c>
-      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="31" t="s">
+      <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="24">
         <f t="shared" si="1"/>
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="24">
         <f t="shared" si="2"/>
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="24">
         <f t="shared" si="3"/>
         <v>75.817300000000003</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>3.56E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>1.29E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="31" t="s">
+      <c r="H10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>6.13E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>8.75</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="31" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="5"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="37"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1147,65 +1200,61 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="21">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="21">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="28">
         <v>49.663499999999999</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>100</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="54" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="1"/>
@@ -1213,33 +1262,31 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>3.56E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>1.29E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="52" t="s">
+      <c r="K15" s="33"/>
+      <c r="L15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="1"/>
@@ -1247,554 +1294,490 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>2.75E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>68.509600000000006</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="50"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="5"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="37"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>4.87E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>3.04E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>15.5769</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="5"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="5" t="s">
+    <row r="19" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="5"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>3.56E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>1.29E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="5"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="38" t="s">
+    <row r="21" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="23">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="23">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="26">
         <v>16.9712</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="5"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="5"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>10.5769</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="31" t="s">
+      <c r="H23" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="5" t="s">
+    <row r="24" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>100</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="31" t="s">
+      <c r="H24" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="54" t="s">
+      <c r="K24" s="32"/>
+      <c r="L24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="25" t="s">
         <v>13</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>3.56E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>1.29E-2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="31" t="s">
+      <c r="H25" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="52" t="s">
+      <c r="K25" s="33"/>
+      <c r="L25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="47"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>9.7114999999999991</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="31" t="s">
+      <c r="H26" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="50"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="I27" s="5"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>10.7692</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="14"/>
+    <row r="29" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>100</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="14"/>
+    <row r="30" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>3.56E-2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>1.29E-2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="39" t="s">
+    <row r="31" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="26">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="26">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="26">
         <v>17.548100000000002</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="28">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="28">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="21">
         <v>43.75</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>100</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>3.56E-2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>1.29E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>67.884600000000006</v>
       </c>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="B42" s="8"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -1813,13 +1796,7 @@
     </row>
     <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="B43" s="8"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -1838,13 +1815,7 @@
     </row>
     <row r="44" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="B44" s="8"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -1863,13 +1834,7 @@
     </row>
     <row r="45" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="8"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -1888,13 +1853,7 @@
     </row>
     <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="B46" s="8"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -1913,13 +1872,7 @@
     </row>
     <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="B47" s="8"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -1938,13 +1891,7 @@
     </row>
     <row r="48" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="B48" s="8"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -1963,13 +1910,7 @@
     </row>
     <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="B49" s="8"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -1988,13 +1929,7 @@
     </row>
     <row r="50" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="B50" s="8"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -2013,10 +1948,10 @@
     </row>
     <row r="51" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51"/>
-      <c r="B51" s="42"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="B51" s="8"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
       <c r="H51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -2036,10 +1971,10 @@
     </row>
     <row r="52" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52"/>
-      <c r="B52" s="42"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="B52" s="8"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
       <c r="H52"/>
       <c r="L52"/>
       <c r="M52"/>
@@ -2059,10 +1994,10 @@
     </row>
     <row r="53" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53"/>
-      <c r="B53" s="42"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="B53" s="8"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
       <c r="H53"/>
       <c r="L53"/>
       <c r="M53"/>
@@ -2082,10 +2017,10 @@
     </row>
     <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54"/>
-      <c r="B54" s="42"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="B54" s="8"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="H54"/>
       <c r="L54"/>
       <c r="M54"/>
@@ -2105,6 +2040,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="A23:A36"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:K14"/>
@@ -2118,13 +2060,6 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2142,109 +2077,105 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="42"/>
+    <col min="2" max="2" width="10.90625" style="8"/>
     <col min="3" max="3" width="10.90625" style="1"/>
-    <col min="4" max="6" width="10.90625" style="2"/>
     <col min="7" max="7" width="10.90625" style="1"/>
     <col min="8" max="8" width="23.08984375" customWidth="1"/>
     <col min="9" max="11" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>43.557699999999997</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>3.56E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>1.29E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2258,173 +2189,156 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="39" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="26">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="26">
         <v>2.35E-2</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="23">
         <v>75.817300000000003</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="19">
         <f>MAX(D3,D8,D13,D18,D23,D28,D33,D38)</f>
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="19">
         <f t="shared" ref="L6:M6" si="0">MAX(E3,E8,E13,E18,E23,E28,E33,E38)</f>
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="19">
         <f t="shared" si="0"/>
         <v>49.663499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="31"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="A7" s="37"/>
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K9" si="1">MAX(D4,D9,D14,D19,D24,D29,D34,D39)</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L9" si="2">MAX(E4,E9,E14,E19,E24,E29,E34,E39)</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="1">
         <f t="shared" ref="M7:M9" si="3">MAX(F4,F9,F14,F19,F24,F29,F34,F39)</f>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="31" t="s">
+      <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
         <v>3.56E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>1.29E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="1">
         <f t="shared" si="3"/>
         <v>0.48080000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="31" t="s">
+      <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="24">
         <f t="shared" si="1"/>
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="24">
         <f t="shared" si="2"/>
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="24">
         <f t="shared" si="3"/>
         <v>75.817300000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>3.56E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>1.29E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="31" t="s">
+      <c r="H10" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>6.13E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>8.75</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="31" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1"/>
@@ -2433,37 +2347,30 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="37"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="21">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="20">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="20">
         <v>49.663499999999999</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="20" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
@@ -2472,22 +2379,21 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>100</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="20" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="1"/>
@@ -2496,22 +2402,21 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>3.56E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>1.29E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="20" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="1"/>
@@ -2520,270 +2425,248 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>2.75E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>68.509600000000006</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="31"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="37"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>4.87E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>3.04E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>15.5769</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="5" t="s">
+    <row r="19" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>3.56E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>1.29E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="39" t="s">
+    <row r="21" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="23">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="26">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="26">
         <v>16.9712</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="31"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="1">
         <v>34.471200000000003</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="31" t="s">
+      <c r="H23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="31" t="s">
+    <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34"/>
+      <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="1">
         <v>100</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="31" t="s">
+      <c r="H24" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="31" t="s">
+    <row r="25" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="34"/>
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25">
         <v>3.56E-2</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25">
         <v>1.29E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="1">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="31" t="s">
+      <c r="H25" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="Q25" s="47"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="31" t="s">
+    </row>
+    <row r="26" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="1">
         <v>60.769199999999998</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="31" t="s">
+      <c r="H26" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="1"/>
@@ -2791,295 +2674,263 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="31"/>
-      <c r="J27" s="49" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="J27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>5.9135</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="31" t="s">
+      <c r="H28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="54" t="s">
+      <c r="K28" s="33"/>
+      <c r="L28" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="M28" s="25" t="s">
         <v>13</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="5" t="s">
+    <row r="29" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>100</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="31" t="s">
+      <c r="H29" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="52" t="s">
+      <c r="K29" s="33"/>
+      <c r="L29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>3.56E-2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>1.29E-2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="31" t="s">
+      <c r="H30" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="5" t="s">
+    <row r="31" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>6.2E-2</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>16.394200000000001</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="31" t="s">
+      <c r="H31" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="31"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="20">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="21">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="21">
         <v>38.076900000000002</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>100</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="5" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>3.56E-2</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <v>1.29E-2</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="5" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>69.855800000000002</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="31"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>4.87E-2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>4.2308000000000003</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="5" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>100</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="T39" s="42">
+      <c r="T39" s="8">
         <v>11</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X39">
         <v>42.788499999999999</v>
       </c>
       <c r="Y39" s="1"/>
@@ -3088,37 +2939,36 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>3.56E-2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>1.29E-2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>0.48080000000000001</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T40" s="42">
+      <c r="T40" s="8">
         <v>11</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X40">
         <v>100</v>
       </c>
       <c r="Y40" s="1"/>
@@ -3127,37 +2977,36 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="26">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="23">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="26">
         <v>35.817300000000003</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="8">
         <v>11</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41">
         <v>3.56E-2</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41">
         <v>1.29E-2</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41">
         <v>0.48080000000000001</v>
       </c>
       <c r="Y41" s="1"/>
@@ -3166,25 +3015,19 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="31"/>
-      <c r="T42" s="42">
+      <c r="T42" s="8">
         <v>11</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42">
         <v>76.490399999999994</v>
       </c>
       <c r="Y42" s="1"/>
@@ -3193,19 +3036,19 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>10.5769</v>
       </c>
       <c r="H43" t="s">
@@ -3213,17 +3056,17 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
+      <c r="A44" s="30"/>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
@@ -3231,17 +3074,17 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A45" s="22"/>
+      <c r="A45" s="30"/>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>3.56E-2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>1.29E-2</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>0.48080000000000001</v>
       </c>
       <c r="H45" t="s">
@@ -3249,17 +3092,17 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
+      <c r="A46" s="30"/>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>9.7114999999999991</v>
       </c>
       <c r="H46" t="s">
@@ -3267,20 +3110,20 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
+      <c r="A47" s="30"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
+      <c r="A48" s="30"/>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>10.7692</v>
       </c>
       <c r="H48" t="s">
@@ -3288,17 +3131,17 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
+      <c r="A49" s="30"/>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>100</v>
       </c>
       <c r="H49" t="s">
@@ -3306,17 +3149,17 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
+      <c r="A50" s="30"/>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>3.56E-2</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>1.29E-2</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>0.48080000000000001</v>
       </c>
       <c r="H50" t="s">
@@ -3324,17 +3167,17 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="30"/>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>17.548100000000002</v>
       </c>
       <c r="H51" t="s">
@@ -3342,20 +3185,20 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="30"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="30"/>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>43.75</v>
       </c>
       <c r="H53" t="s">
@@ -3363,17 +3206,17 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="30"/>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>100</v>
       </c>
       <c r="H54" t="s">
@@ -3381,17 +3224,17 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="30"/>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>3.56E-2</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55">
         <v>1.29E-2</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>0.48080000000000001</v>
       </c>
       <c r="H55" t="s">
@@ -3399,17 +3242,17 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="30"/>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>67.884600000000006</v>
       </c>
       <c r="H56" t="s">
@@ -3417,34 +3260,34 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="30"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="30"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
+      <c r="A60" s="30"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J16:M20"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="K3:M4"/>
     <mergeCell ref="A43:A61"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="J21:M25"/>
-    <mergeCell ref="J16:M20"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="C1:H1"/>
     <mergeCell ref="A3:A21"/>
-    <mergeCell ref="K3:M4"/>
     <mergeCell ref="A23:A41"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B11"/>
@@ -3468,99 +3311,98 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="10.90625" style="1"/>
-    <col min="4" max="6" width="10.90625" style="2"/>
     <col min="7" max="7" width="10.90625" style="1"/>
     <col min="8" max="8" width="23.08984375" customWidth="1"/>
     <col min="9" max="11" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>43.557699999999997</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="37"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="37"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>3.56E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1.29E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -3574,128 +3416,128 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="37"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>2.35E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>75.817300000000003</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="3">
-        <f>MAX(D3,D8,D13,D18)</f>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:M9" si="0">MAX(D3,D8,D13,D18)</f>
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="L6" s="3">
-        <f>MAX(E3,E8,E13,E18)</f>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="M6" s="3">
-        <f>MAX(F3,F8,F13,F18)</f>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
         <v>49.663499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="K7" s="5">
-        <f>MAX(D4,D9,D14,D19)</f>
+      <c r="A7" s="37"/>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L7" s="5">
-        <f>MAX(E4,E9,E14,E19)</f>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M7" s="5">
-        <f>MAX(F4,F9,F14,F19)</f>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="37"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="5">
-        <f>MAX(D5,D10,D15,D20)</f>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
         <v>3.56E-2</v>
       </c>
-      <c r="L8" s="5">
-        <f>MAX(E5,E10,E15,E20)</f>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
         <v>1.29E-2</v>
       </c>
-      <c r="M8" s="5">
-        <f>MAX(F5,F10,F15,F20)</f>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
         <v>0.48080000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="37"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>100</v>
       </c>
       <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="8">
-        <f>MAX(D6,D11,D16,D21)</f>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="L9" s="8">
-        <f>MAX(E6,E11,E16,E21)</f>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="M9" s="11">
-        <f>MAX(F6,F11,F16,F21)</f>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
         <v>75.817300000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="37"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>3.56E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1.29E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>0.48080000000000001</v>
       </c>
       <c r="H10" t="s">
@@ -3703,17 +3545,17 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="37"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>6.13E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>8.75</v>
       </c>
       <c r="H11" t="s">
@@ -3725,27 +3567,27 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="37"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="37"/>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>49.663499999999999</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
@@ -3754,20 +3596,20 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="37"/>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>100</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="1"/>
@@ -3776,20 +3618,20 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="37"/>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>3.56E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>1.29E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="1"/>
@@ -3798,20 +3640,20 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="37"/>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>2.75E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>68.509600000000006</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="1"/>
@@ -3820,31 +3662,27 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="37"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="37"/>
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>4.87E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>3.04E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>15.5769</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1"/>
@@ -3853,20 +3691,20 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="37"/>
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1"/>
@@ -3875,20 +3713,20 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="37"/>
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>3.56E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>1.29E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="1"/>
@@ -3897,25 +3735,25 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="37"/>
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>16.9712</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
@@ -3930,17 +3768,17 @@
       <c r="F23" s="1">
         <v>34.471200000000003</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
+      <c r="A24" s="30"/>
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -3953,15 +3791,15 @@
       <c r="F24" s="1">
         <v>100</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
+      <c r="A25" s="30"/>
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -3974,7 +3812,7 @@
       <c r="F25" s="1">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3988,8 +3826,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="C26" s="30" t="s">
+      <c r="A26" s="30"/>
+      <c r="C26" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D26">
@@ -3998,118 +3836,118 @@
       <c r="E26">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="16">
         <v>60.769199999999998</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="23">
-        <f>MAX(D23,D28,D33,D38)</f>
+      <c r="K26" s="13">
+        <f t="shared" ref="K26:M29" si="1">MAX(D23,D28,D33,D38)</f>
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="L26" s="23">
-        <f>MAX(E23,E28,E33,E38)</f>
+      <c r="L26" s="13">
+        <f t="shared" si="1"/>
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="M26" s="23">
-        <f>MAX(F23,F28,F33,F38)</f>
+      <c r="M26" s="13">
+        <f t="shared" si="1"/>
         <v>38.076900000000002</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="K27" s="5">
-        <f>MAX(D24,D29,D34,D39)</f>
+      <c r="A27" s="30"/>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L27" s="5">
-        <f>MAX(E24,E29,E34,E39)</f>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M27" s="5">
-        <f>MAX(F24,F29,F34,F39)</f>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
+      <c r="A28" s="30"/>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>5.9135</v>
       </c>
       <c r="H28" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="5">
-        <f>MAX(D25,D30,D35,D40)</f>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
         <v>3.56E-2</v>
       </c>
-      <c r="L28" s="5">
-        <f>MAX(E25,E30,E35,E40)</f>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
         <v>1.29E-2</v>
       </c>
-      <c r="M28" s="5">
-        <f>MAX(F25,F30,F35,F40)</f>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
         <v>0.48080000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
+      <c r="A29" s="30"/>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="28">
-        <f>MAX(D26,D31,D36,D41)</f>
+      <c r="K29" s="17">
+        <f t="shared" si="1"/>
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="L29" s="28">
-        <f>MAX(E26,E31,E36,E41)</f>
+      <c r="L29" s="17">
+        <f t="shared" si="1"/>
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="M29" s="27">
-        <f>MAX(F26,F31,F36,F41)</f>
+      <c r="M29" s="16">
+        <f t="shared" si="1"/>
         <v>69.855800000000002</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
+      <c r="A30" s="30"/>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>3.56E-2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>1.29E-2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>0.48080000000000001</v>
       </c>
       <c r="H30" t="s">
@@ -4117,17 +3955,17 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
+      <c r="A31" s="30"/>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>6.2E-2</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>16.394200000000001</v>
       </c>
       <c r="H31" t="s">
@@ -4135,152 +3973,152 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
+      <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="C33" s="23" t="s">
+      <c r="A33" s="30"/>
+      <c r="C33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="14">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="14">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="14">
         <v>38.076900000000002</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
+      <c r="A34" s="30"/>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>100</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
+      <c r="A35" s="30"/>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>3.56E-2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>1.29E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
+      <c r="A36" s="30"/>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>69.855800000000002</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
+      <c r="A38" s="30"/>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>4.87E-2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>4.2308000000000003</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
+      <c r="A39" s="30"/>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>100</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
+      <c r="A40" s="30"/>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>3.56E-2</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>1.29E-2</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>0.48080000000000001</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="C41" s="28" t="s">
+      <c r="A41" s="30"/>
+      <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="15">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="15">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>35.817300000000003</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="15" t="s">
         <v>3</v>
       </c>
     </row>
